--- a/URL на разных языках.xlsx
+++ b/URL на разных языках.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="черновик" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Вариант Б (развёрнутый)" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -47,11 +47,181 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
+          <t xml:space="preserve"> (спортивные ставки)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
           <t xml:space="preserve"> (ставки)</t>
         </r>
       </text>
     </comment>
-    <comment ref="A40" authorId="0">
+    <comment ref="A42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Игровые автоматы
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">(пользовательские условия)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">(общие условия)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">(промокод)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">⭐</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> (нет депозита бонус)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">(бездепозитный бонус) ⭐</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">(рецензия) ⭐</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">(обзор)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> (выплата)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> (вывод) ⭐</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> (спортставки)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,163 +231,6 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve"> (спортивные ставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">(пользовательские условия)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">(общие условия)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">(промокод)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (нет депозита бонус)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">(бездепозитный бонус) </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">(обзор)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">(рецензия)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B27" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (выплата)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B28" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (вывод)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (ставки, основной вариант
-)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B40" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (спортставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B42" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (игровые автоматы) </t>
         </r>
       </text>
     </comment>
@@ -271,7 +284,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">(бездепозитный бонус) </t>
+          <t xml:space="preserve">(бездепозитный бонус) ⭐</t>
         </r>
       </text>
     </comment>
@@ -297,7 +310,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve"> (рецензия)</t>
+          <t xml:space="preserve"> (рецензия) ⭐</t>
         </r>
       </text>
     </comment>
@@ -314,45 +327,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (спортставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C40" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (ставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C42" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (игровые автоматы)</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D6" authorId="0">
       <text>
         <r>
@@ -362,7 +336,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">(общие условия - наиболее популярный вариант) </t>
+          <t xml:space="preserve">(общие условия - наиболее популярный вариант) ⭐</t>
         </r>
       </text>
     </comment>
@@ -415,7 +389,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">(бездепозитный бонус)</t>
+          <t xml:space="preserve">(бездепозитный бонус) ⭐</t>
         </r>
       </text>
     </comment>
@@ -428,7 +402,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve"> (опыт, впечатление) </t>
+          <t xml:space="preserve"> (основной вариант - опыт, впечатление) ⭐</t>
         </r>
       </text>
     </comment>
@@ -458,45 +432,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="D39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (спортставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D40" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (ставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D42" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (игровые автоматы)</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="E6" authorId="0">
       <text>
         <r>
@@ -536,45 +471,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="E39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (спортставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E40" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (ставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E42" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (игровые автоматы)</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="F24" authorId="0">
       <text>
         <r>
@@ -584,115 +480,167 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
+          <t xml:space="preserve"> (мнения) ⭐</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> (рецензии)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> (выводы (ЛатАм))</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> (бесплатные спины - популярнее в Латам (Бразилия))</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> (синоним более популярный в Европе) ⭐</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">(промокод)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> (вывод)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">⭐</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">(больше для кнопки)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> (рецензия) ⭐</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
           <t xml:space="preserve"> (мнения)</t>
         </r>
       </text>
     </comment>
-    <comment ref="F25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (рецензии)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F27" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (выводы (ЛатАм))</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F29" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (бесплатные спины)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F30" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (синоним)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (спортставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F40" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (ставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F42" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (игровые автоматы)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">(промокод)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G27" authorId="0">
+    <comment ref="H27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> (выводы)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> (вывод) ⭐</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -705,98 +653,46 @@
         </r>
       </text>
     </comment>
-    <comment ref="G39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (спортставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G40" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (ставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G42" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (игровые автоматы)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">(используется чаще)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (рецензия)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (мнения)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H27" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (выводы)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H28" authorId="0">
+    <comment ref="J20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">⭐</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> (рецензия) ⭐</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> (обзор)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -809,188 +705,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="H39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (спортставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H40" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (ставки) </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H42" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (игровые автоматы)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I27" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (вывод)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (спортставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I40" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (ставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (спортставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J41" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (игровые автоматы)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (рецензия)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (обзор)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (спортставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K40" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (ставки, основной вариант)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K41" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (игровые автоматы)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L27" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (вывод)</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="L29" authorId="0">
       <text>
         <r>
@@ -1013,46 +727,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve"> (бразильский‑вариант)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (спортставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L40" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (ставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L41" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (игровые автоматы)</t>
+          <t xml:space="preserve"> (локализованный вариант) ⭐</t>
         </r>
       </text>
     </comment>
@@ -1096,81 +771,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="M39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (спортставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M40" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (ставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M42" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (игровые автоматы) </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (спортставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N40" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (ставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N42" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (игровые автоматы)</t>
+    <comment ref="O18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">⭐</t>
         </r>
       </text>
     </comment>
@@ -1183,46 +793,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">(предпочтительнее)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (спортставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O40" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (ставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O41" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (игровые автоматы) </t>
+          <t xml:space="preserve">(альтернативная транслитерация)</t>
         </r>
       </text>
     </comment>
@@ -1235,33 +806,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">(реже)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (спортставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P40" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (ставки) </t>
+          <t xml:space="preserve">⭐</t>
         </r>
       </text>
     </comment>
@@ -1278,55 +823,42 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">(предпочтительнее)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (спортставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q40" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (ставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q42" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (игровые автоматы)</t>
+    <comment ref="Q18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">⭐</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">⭐</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">⭐</t>
         </r>
       </text>
     </comment>
@@ -1335,7 +867,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="425">
   <si>
     <t xml:space="preserve">English (UK)</t>
   </si>
@@ -2093,57 +1625,57 @@
     <t xml:space="preserve">/review</t>
   </si>
   <si>
+    <t xml:space="preserve">/recension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/recensie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/erfahrungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/avis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/opiniones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/recensione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/recenzja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/arvostelu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/anmeldelse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /anmeldelse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/avaliacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/recenze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/recenzie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/kritiki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ulevaade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ertekeles</t>
+  </si>
+  <si>
     <t xml:space="preserve"> /oversikt</t>
   </si>
   <si>
-    <t xml:space="preserve">/recensie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/erfahrungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/avis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/opiniones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/recensione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/recenzja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/arvostelu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/anmeldelse</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /anmeldelse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/avaliacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/recenze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/recenzie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/kritiki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/ulevaade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/ertekeles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/recension</t>
-  </si>
-  <si>
     <t xml:space="preserve">/beoordeling</t>
   </si>
   <si>
@@ -2447,63 +1979,63 @@
     <t xml:space="preserve">/athlimata</t>
   </si>
   <si>
+    <t xml:space="preserve">/sports-betting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /sportspel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /sportweddenschappen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sportwetten</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /paris-sportifs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/apuestas-deportivas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /scommesse-sportive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/zaklady-sportowe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/urheiluvedonlyonti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sportspil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sportsodds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/apostas-desportivas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sportovni-sazky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/pariuri-sportive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/stoixima-athlitika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/spordikihlveod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sportfogadas</t>
+  </si>
+  <si>
     <t xml:space="preserve">/betting</t>
   </si>
   <si>
     <t xml:space="preserve">/vadslagning</t>
   </si>
   <si>
-    <t xml:space="preserve"> /sportweddenschappen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sportwetten</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /paris-sportifs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/apuestas-deportivas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /scommesse-sportive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/zaklady-sportowe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/urheiluvedonlyonti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sportspil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sportsodds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/apostas-desportivas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sportovni-sazky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/pariuri-sportive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/stoixima-athlitika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/spordikihlveod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sportfogadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sports-betting</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /sportspel</t>
-  </si>
-  <si>
     <t xml:space="preserve">/weddenschappen</t>
   </si>
   <si>
@@ -2561,52 +2093,55 @@
     <t xml:space="preserve">/kolikkopelit</t>
   </si>
   <si>
+    <t xml:space="preserve">/sloturi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/slotimangud</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /slotok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/online-slots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/spelautomater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/gokkasten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/spielautomaten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/machines-a-sous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/tragaperras</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /slot-machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/automaty</t>
+  </si>
+  <si>
     <t xml:space="preserve">/spilleautomater</t>
   </si>
   <si>
     <t xml:space="preserve">/caca-niqueis</t>
   </si>
   <si>
-    <t xml:space="preserve">/sloturi</t>
+    <t xml:space="preserve">/pacanele</t>
   </si>
   <si>
     <t xml:space="preserve">/froutakia</t>
   </si>
   <si>
-    <t xml:space="preserve">/slotimangud</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /slotok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/online-slots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/spelautomater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/gokkasten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/spielautomaten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/machines-a-sous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/tragaperras</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /slot-machine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/automaty</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /pacanele</t>
-  </si>
-  <si>
     <t xml:space="preserve">/nyerogepek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⭐ - основной вариант</t>
   </si>
 </sst>
 </file>
@@ -2616,7 +2151,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2672,6 +2207,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2699,20 +2241,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA4C2F4"/>
-        <bgColor rgb="FFB4C7DC"/>
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4C7DC"/>
-        <bgColor rgb="FFA4C2F4"/>
+        <fgColor rgb="FF181818"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2757,7 +2299,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2814,12 +2356,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2847,16 +2385,16 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB4C7DC"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF6D9EEB"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFF2CC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFC9DAF8"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -2869,7 +2407,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FFA4C2F4"/>
+      <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -2883,7 +2421,7 @@
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF181818"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
@@ -3075,7 +2613,11 @@
   <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4339,7 +3881,7 @@
       <c r="Z24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="7" t="s">
         <v>268</v>
       </c>
@@ -5182,101 +4724,128 @@
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
     </row>
-    <row r="41" s="15" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="s">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H41" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="I41" s="14" t="s">
+      <c r="I41" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="J41" s="14" t="s">
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="N41" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="K41" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="L41" s="14" t="s">
+      <c r="O41" s="9"/>
+      <c r="P41" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="M41" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="N41" s="14" t="s">
+      <c r="Q41" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="O41" s="14" t="s">
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="P41" s="14" t="s">
+      <c r="B42" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q41" s="14" t="s">
+      <c r="C42" s="9" t="s">
         <v>413</v>
       </c>
+      <c r="D42" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="P42" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q42" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
     </row>
-    <row r="42" s="15" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="N42" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q42" s="14" t="s">
-        <v>423</v>
-      </c>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="B44" s="5"/>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O49" s="5"/>

--- a/URL на разных языках.xlsx
+++ b/URL на разных языках.xlsx
@@ -38,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A39" authorId="0">
+    <comment ref="A41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A40" authorId="0">
+    <comment ref="A42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A42" authorId="0">
+    <comment ref="A44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0">
+    <comment ref="B25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0">
+    <comment ref="B26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0">
+    <comment ref="B28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="0">
+    <comment ref="B29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -205,32 +205,6 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve"> (вывод) ⭐</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B44" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (спортставки)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B48" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> (спортивные ставки)</t>
         </r>
       </text>
     </comment>
@@ -310,11 +284,24 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
+          <t xml:space="preserve">Бесплатный бонус</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
           <t xml:space="preserve"> (рецензия) ⭐</t>
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="0">
+    <comment ref="C26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -393,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="0">
+    <comment ref="D25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -406,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D25" authorId="0">
+    <comment ref="D26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -419,7 +406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0">
+    <comment ref="D27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -458,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0">
+    <comment ref="E25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -471,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F24" authorId="0">
+    <comment ref="F25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -484,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F25" authorId="0">
+    <comment ref="F26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -506,6 +493,20 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
+          <t xml:space="preserve">рецензия - единственное число
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
           <t xml:space="preserve"> (выводы (ЛатАм))</t>
         </r>
       </text>
@@ -519,7 +520,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve"> (бесплатные спины - популярнее в Латам (Бразилия))</t>
+          <t xml:space="preserve">тоже самое что и /retiros, только единственное число (вывод, изъятие)</t>
         </r>
       </text>
     </comment>
@@ -532,7 +533,48 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
+          <t xml:space="preserve"> (бесплатные спины - популярнее в Латам (Бразилия))</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
           <t xml:space="preserve"> (синоним более популярный в Европе) ⭐</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Европа
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Бразилия
+</t>
         </r>
       </text>
     </comment>
@@ -549,7 +591,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G27" authorId="0">
+    <comment ref="G28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -588,7 +630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H24" authorId="0">
+    <comment ref="H25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -601,7 +643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H25" authorId="0">
+    <comment ref="H26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -614,7 +656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H27" authorId="0">
+    <comment ref="H28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -627,7 +669,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H28" authorId="0">
+    <comment ref="H29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -640,7 +682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I27" authorId="0">
+    <comment ref="I22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -649,7 +691,46 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve"> (вывод)</t>
+          <t xml:space="preserve">бездепозитный бонус</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">бесплатный бонус</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> (снятие)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">вывод средств</t>
         </r>
       </text>
     </comment>
@@ -666,7 +747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K24" authorId="0">
+    <comment ref="K25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -679,7 +760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K25" authorId="0">
+    <comment ref="K26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -692,7 +773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L27" authorId="0">
+    <comment ref="L28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -705,7 +786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L29" authorId="0">
+    <comment ref="L30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -718,7 +799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L30" authorId="0">
+    <comment ref="L31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -758,7 +839,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M27" authorId="0">
+    <comment ref="M28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -810,7 +891,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P42" authorId="0">
+    <comment ref="P44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -849,7 +930,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q33" authorId="0">
+    <comment ref="Q35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -867,7 +948,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="435">
   <si>
     <t xml:space="preserve">English (UK)</t>
   </si>
@@ -1559,6 +1640,9 @@
     <t xml:space="preserve">/bonuskod</t>
   </si>
   <si>
+    <t xml:space="preserve">/bonus-koodi</t>
+  </si>
+  <si>
     <t xml:space="preserve">/bonusz-kod</t>
   </si>
   <si>
@@ -1622,6 +1706,12 @@
     <t xml:space="preserve">/bonus-ohne-einzahlung</t>
   </si>
   <si>
+    <t xml:space="preserve">ilmainen-bonus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/gratis bonus</t>
+  </si>
+  <si>
     <t xml:space="preserve">/review</t>
   </si>
   <si>
@@ -1694,6 +1784,9 @@
     <t xml:space="preserve">/bewertung</t>
   </si>
   <si>
+    <t xml:space="preserve">/resena</t>
+  </si>
+  <si>
     <t xml:space="preserve">/withdrawal</t>
   </si>
   <si>
@@ -1748,9 +1841,15 @@
     <t xml:space="preserve">/uttag</t>
   </si>
   <si>
+    <t xml:space="preserve">/retiro</t>
+  </si>
+  <si>
     <t xml:space="preserve">/wyplata</t>
   </si>
   <si>
+    <t xml:space="preserve">/kotiutus</t>
+  </si>
+  <si>
     <t xml:space="preserve">/free-spins</t>
   </si>
   <si>
@@ -1802,6 +1901,15 @@
     <t xml:space="preserve">/app</t>
   </si>
   <si>
+    <t xml:space="preserve">/application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/aplikacja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sovellus</t>
+  </si>
+  <si>
     <t xml:space="preserve">/games</t>
   </si>
   <si>
@@ -2139,6 +2247,9 @@
   </si>
   <si>
     <t xml:space="preserve">/nyerogepek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/tragamonedas</t>
   </si>
   <si>
     <t xml:space="preserve">⭐ - основной вариант</t>
@@ -2603,7 +2714,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1015"/>
+  <dimension ref="A1:Z1017"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -3701,7 +3812,9 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="I21" s="13" t="s">
+        <v>230</v>
+      </c>
       <c r="J21" s="13" t="s">
         <v>222</v>
       </c>
@@ -3712,7 +3825,7 @@
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
@@ -3726,55 +3839,55 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
@@ -3789,19 +3902,21 @@
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="I23" s="8" t="s">
+        <v>252</v>
+      </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
@@ -3821,97 +3936,87 @@
       <c r="Z23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="B25" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="E25" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="G25" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="H25" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="L24" s="10" t="s">
+      <c r="I25" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="M24" s="10" t="s">
+      <c r="J25" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="N24" s="10" t="s">
+      <c r="K25" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="O24" s="10" t="s">
+      <c r="L25" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="P24" s="10" t="s">
+      <c r="M25" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="Q24" s="10" t="s">
+      <c r="N25" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11"/>
-      <c r="B25" s="10" t="s">
+      <c r="O25" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="P25" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="Q25" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
@@ -3923,19 +4028,29 @@
       <c r="Z25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>272</v>
+      </c>
       <c r="D26" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="H26" s="10" t="s">
+        <v>275</v>
+      </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
+      <c r="K26" s="10" t="s">
+        <v>276</v>
+      </c>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
@@ -3953,89 +4068,89 @@
       <c r="Z26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="B28" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="E28" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="F28" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="G28" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="H28" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="M27" s="8" t="s">
+      <c r="I28" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="N27" s="8" t="s">
+      <c r="J28" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="O27" s="8" t="s">
+      <c r="K28" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="P27" s="8" t="s">
+      <c r="L28" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="Q27" s="8" t="s">
+      <c r="M28" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8" t="s">
+      <c r="N28" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8" t="s">
+      <c r="O28" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
+      <c r="P28" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
@@ -4047,89 +4162,93 @@
       <c r="Z28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="D29" s="10" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="G29" s="8"/>
+      <c r="H29" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="I29" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="B30" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="J29" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="K29" s="10" t="s">
+      <c r="C30" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="L29" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="M29" s="10" t="s">
+      <c r="E30" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="N29" s="10" t="s">
+      <c r="F30" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="O29" s="10" t="s">
+      <c r="G30" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="P29" s="10" t="s">
+      <c r="H30" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="Q29" s="10" t="s">
+      <c r="I30" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10" t="s">
+      <c r="J30" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="K30" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
       <c r="L30" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="M30" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
+      <c r="N30" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="P30" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>313</v>
+      </c>
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
@@ -4141,181 +4260,123 @@
       <c r="Z30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="P31" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q31" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="F32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="B32" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="P32" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q32" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I33" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="J32" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="N32" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="O32" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="P32" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q32" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="P33" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q33" s="8" t="s">
-        <v>337</v>
-      </c>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
@@ -4327,148 +4388,148 @@
       <c r="Z33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8" t="s">
+      <c r="A34" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="P34" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
+      <c r="C35" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="C35" s="10" t="s">
+      <c r="D35" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="E35" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="F35" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="G35" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="H35" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="J35" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="P35" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="Q35" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="J35" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="M35" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="O35" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="P35" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q35" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8" t="s">
         <v>347</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="O36" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="P36" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q36" s="8" t="s">
-        <v>363</v>
       </c>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
@@ -4482,55 +4543,55 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="P37" s="10" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="Q37" s="10" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
@@ -4544,55 +4605,55 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>365</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L38" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="M38" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="M38" s="8" t="s">
-        <v>365</v>
-      </c>
       <c r="N38" s="8" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
@@ -4606,55 +4667,55 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>373</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="Q39" s="10" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
@@ -4667,268 +4728,335 @@
       <c r="Z39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="P40" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q40" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="I41" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="J41" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="K41" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="L41" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="M41" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="N41" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="O41" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="P41" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="Q41" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10" t="s">
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="L40" s="10" t="s">
+      <c r="B42" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="M40" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="N40" s="10" t="s">
+      <c r="D42" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="O40" s="10" t="s">
+      <c r="E42" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="P40" s="10" t="s">
+      <c r="F42" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="Q40" s="10" t="s">
+      <c r="G42" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11"/>
-      <c r="Y40" s="11"/>
-      <c r="Z40" s="11"/>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
+      <c r="H42" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="F41" s="8" t="s">
+      <c r="I42" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="J42" s="10"/>
+      <c r="K42" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="L42" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="M42" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="N41" s="8" t="s">
+      <c r="N42" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8" t="s">
+      <c r="O42" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="Q41" s="8" t="s">
+      <c r="P42" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
+      <c r="Q42" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="B43" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="G43" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="H43" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="I43" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="N43" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="O43" s="8"/>
+      <c r="P43" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8" t="s">
+      <c r="Q43" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="K42" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="L42" s="8" t="s">
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="M42" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="N42" s="8" t="s">
+      <c r="B44" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="O42" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="P42" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q42" s="8" t="s">
+      <c r="D44" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="7"/>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="7"/>
-      <c r="Z43" s="7"/>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14" t="s">
+      <c r="E44" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
+      <c r="F44" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="P44" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q44" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="7"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
+      <c r="B46" s="5"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -4983,8 +5111,10 @@
       <c r="Z47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7"/>
-      <c r="B48" s="5"/>
+      <c r="A48" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -5025,7 +5155,7 @@
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
-      <c r="O49" s="5"/>
+      <c r="O49" s="7"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
@@ -5040,7 +5170,7 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
+      <c r="B50" s="5"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -5081,7 +5211,7 @@
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
+      <c r="O51" s="5"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
@@ -32086,6 +32216,62 @@
       <c r="Y1015" s="7"/>
       <c r="Z1015" s="7"/>
     </row>
+    <row r="1016" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1016" s="7"/>
+      <c r="B1016" s="7"/>
+      <c r="C1016" s="7"/>
+      <c r="D1016" s="7"/>
+      <c r="E1016" s="7"/>
+      <c r="F1016" s="7"/>
+      <c r="G1016" s="7"/>
+      <c r="H1016" s="7"/>
+      <c r="I1016" s="7"/>
+      <c r="J1016" s="7"/>
+      <c r="K1016" s="7"/>
+      <c r="L1016" s="7"/>
+      <c r="M1016" s="7"/>
+      <c r="N1016" s="7"/>
+      <c r="O1016" s="7"/>
+      <c r="P1016" s="7"/>
+      <c r="Q1016" s="7"/>
+      <c r="R1016" s="7"/>
+      <c r="S1016" s="7"/>
+      <c r="T1016" s="7"/>
+      <c r="U1016" s="7"/>
+      <c r="V1016" s="7"/>
+      <c r="W1016" s="7"/>
+      <c r="X1016" s="7"/>
+      <c r="Y1016" s="7"/>
+      <c r="Z1016" s="7"/>
+    </row>
+    <row r="1017" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1017" s="7"/>
+      <c r="B1017" s="7"/>
+      <c r="C1017" s="7"/>
+      <c r="D1017" s="7"/>
+      <c r="E1017" s="7"/>
+      <c r="F1017" s="7"/>
+      <c r="G1017" s="7"/>
+      <c r="H1017" s="7"/>
+      <c r="I1017" s="7"/>
+      <c r="J1017" s="7"/>
+      <c r="K1017" s="7"/>
+      <c r="L1017" s="7"/>
+      <c r="M1017" s="7"/>
+      <c r="N1017" s="7"/>
+      <c r="O1017" s="7"/>
+      <c r="P1017" s="7"/>
+      <c r="Q1017" s="7"/>
+      <c r="R1017" s="7"/>
+      <c r="S1017" s="7"/>
+      <c r="T1017" s="7"/>
+      <c r="U1017" s="7"/>
+      <c r="V1017" s="7"/>
+      <c r="W1017" s="7"/>
+      <c r="X1017" s="7"/>
+      <c r="Y1017" s="7"/>
+      <c r="Z1017" s="7"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/URL на разных языках.xlsx
+++ b/URL на разных языках.xlsx
@@ -1709,7 +1709,7 @@
     <t xml:space="preserve">ilmainen-bonus</t>
   </si>
   <si>
-    <t xml:space="preserve">/gratis bonus</t>
+    <t xml:space="preserve">/gratis-bonus</t>
   </si>
   <si>
     <t xml:space="preserve">/review</t>
